--- a/xlsx/意识_intext.xlsx
+++ b/xlsx/意识_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="473">
   <si>
     <t>意识</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%BF%83%E7%90%86%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>性心理發展</t>
+    <t>性心理发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%E6%A3%AE%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%8F%91%E5%B1%95%E9%98%B6%E6%AE%B5</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>潛意識</t>
+    <t>潜意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E6%84%8F%E8%AF%86</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%B8%83%E7%BE%85%E4%BC%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>約瑟夫·布羅伊爾</t>
+    <t>约瑟夫·布罗伊尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nancy_Chodorow</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%C2%B7%E6%8B%89%E5%B2%A1</t>
   </si>
   <si>
-    <t>雅各·拉岡</t>
+    <t>雅各·拉冈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ronald_Laing</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A2%E7%9A%84%E8%A7%A3%E6%9E%90</t>
   </si>
   <si>
-    <t>夢的解析</t>
+    <t>梦的解析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E7%94%9F%E6%B4%BB%E4%B9%8B%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>日常生活之精神病學</t>
+    <t>日常生活之精神病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%AD%A6%E4%B8%89%E8%AE%BA</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E8%B6%8A%E5%BF%AB%E6%A8%82%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>超越快樂原則</t>
+    <t>超越快乐原则</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Ego_and_the_Id</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -503,19 +503,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -539,43 +539,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -599,43 +599,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -647,19 +647,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
@@ -827,19 +827,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
+    <t>神经解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
@@ -893,19 +893,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>記憶</t>
+    <t>记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
@@ -917,19 +917,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
   </si>
   <si>
-    <t>知覺</t>
+    <t>知觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
   </si>
   <si>
-    <t>企劃</t>
+    <t>企划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>解決問題</t>
+    <t>解决问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
   </si>
   <si>
-    <t>費尼斯·蓋吉</t>
+    <t>费尼斯·盖吉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>奧利佛·薩克斯</t>
+    <t>奥利佛·萨克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
   </si>
   <si>
-    <t>亨利·莫萊森</t>
+    <t>亨利·莫莱森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
@@ -1133,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>斯特魯普效應</t>
+    <t>斯特鲁普效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>魏氏智力測驗</t>
+    <t>魏氏智力测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
@@ -1181,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5</t>
   </si>
   <si>
-    <t>認知</t>
+    <t>认知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E4%B9%89</t>
@@ -1355,9 +1355,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理学家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AF%E7%89%B9</t>
   </si>
   <si>
@@ -1379,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80</t>
   </si>
   <si>
-    <t>客觀</t>
+    <t>客观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNA</t>
@@ -1397,15 +1394,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E8%A6%BA</t>
   </si>
   <si>
-    <t>感覺</t>
+    <t>感觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A7%89</t>
   </si>
   <si>
-    <t>知觉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%96%BE%E7%97%85</t>
   </si>
   <si>
@@ -1427,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -8277,7 +8271,7 @@
         <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>246</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8303,10 +8297,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8332,10 +8326,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8361,10 +8355,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="s">
         <v>449</v>
-      </c>
-      <c r="F227" t="s">
-        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>5</v>
@@ -8390,10 +8384,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>450</v>
+      </c>
+      <c r="F228" t="s">
         <v>451</v>
-      </c>
-      <c r="F228" t="s">
-        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8448,10 +8442,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>452</v>
+      </c>
+      <c r="F230" t="s">
         <v>453</v>
-      </c>
-      <c r="F230" t="s">
-        <v>454</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8477,10 +8471,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>454</v>
+      </c>
+      <c r="F231" t="s">
         <v>455</v>
-      </c>
-      <c r="F231" t="s">
-        <v>456</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8506,10 +8500,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>456</v>
+      </c>
+      <c r="F232" t="s">
         <v>457</v>
-      </c>
-      <c r="F232" t="s">
-        <v>458</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8535,10 +8529,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>458</v>
+      </c>
+      <c r="F233" t="s">
         <v>459</v>
-      </c>
-      <c r="F233" t="s">
-        <v>460</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -8564,10 +8558,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>300</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8593,10 +8587,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8622,10 +8616,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8651,10 +8645,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8680,10 +8674,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -8709,10 +8703,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8738,10 +8732,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
